--- a/doc/mesure.xlsx
+++ b/doc/mesure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>SMB mesure+</t>
   </si>
@@ -37,12 +37,21 @@
   <si>
     <t xml:space="preserve">moyenne python </t>
   </si>
+  <si>
+    <t>min python</t>
+  </si>
+  <si>
+    <t>max python</t>
+  </si>
+  <si>
+    <t>erreur LSB sur python</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,16 +59,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC6B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -67,18 +118,183 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6A3B"/>
+      <color rgb="FFFFC6B9"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -88,6 +304,1885 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$14:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98500000000000032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFC2-40D4-810D-3724C72AE5B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$J$14:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.10198974609375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.122283935546875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.08673095703125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.058502197265625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.045989990234375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0394287109375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.024932861328125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99456787109375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DFC2-40D4-810D-3724C72AE5B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1026244943"/>
+        <c:axId val="1026254511"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1026244943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1026254511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1026254511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1026244943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Vdiff_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t>imposé_analog VS Vdiff_numérisé</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.37999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4699999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDC1-4C3F-809B-18C880CBE475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1.391754150390625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.14501953125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.766754150390625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.38421630859375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1552734375E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37200927734375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.755157470703125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.143798828125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.51519775390625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4627685546875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDC1-4C3F-809B-18C880CBE475}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1026241615"/>
+        <c:axId val="1026243695"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1026241615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1026243695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1026243695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1026241615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,10 +2448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,263 +2459,634 @@
     <col min="2" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>0.68</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f>B2-C2</f>
         <v>-1.39</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>-1.39</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="15">
         <v>-9121</v>
       </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="17">
+        <f>(F2*4*5)/2^17</f>
+        <v>-1.391754150390625</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1.36</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="0">B3-C3</f>
         <v>-1.1399999999999999</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="1">
+        <f>B3-C3</f>
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="F3" s="15">
         <v>-7504</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="9">
         <v>-7530</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="10">
         <v>-7480</v>
       </c>
+      <c r="I3" s="20">
+        <f>(H3-G3)*4</f>
+        <v>200</v>
+      </c>
+      <c r="J3" s="17">
+        <f t="shared" ref="J3:J11" si="1">(F3*4*5)/2^17</f>
+        <v>-1.14501953125</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>1.5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1.74</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>-0.76</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E10" si="2">B4-C4</f>
+        <v>-0.76</v>
+      </c>
+      <c r="F4" s="15">
         <v>-5025</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="9">
         <v>-5050</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="10">
         <v>-5000</v>
       </c>
+      <c r="I4" s="20">
+        <f t="shared" ref="I4:I11" si="3">(H4-G4)*4</f>
+        <v>200</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" si="1"/>
+        <v>-0.766754150390625</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2.12</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>-0.37999999999999989</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.37999999999999989</v>
+      </c>
+      <c r="F5" s="15">
         <v>-2518</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="9">
         <v>-2540</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="10">
         <v>-2490</v>
       </c>
+      <c r="I5" s="20">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" si="1"/>
+        <v>-0.38421630859375</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>2.5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2.5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2.5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="9">
         <v>-20</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="10">
         <v>30</v>
       </c>
+      <c r="I6" s="20">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="1"/>
+        <v>9.1552734375E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2.87</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>0.37000000000000011</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.37000000000000011</v>
+      </c>
+      <c r="F7" s="15">
         <v>2438</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <v>2420</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="10">
         <v>2460</v>
       </c>
+      <c r="I7" s="20">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="1"/>
+        <v>0.37200927734375</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>3.5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>3.26</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>2.5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>0.75999999999999979</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="F8" s="15">
         <v>4949</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="9">
         <v>4930</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="10">
         <v>4970</v>
       </c>
+      <c r="I8" s="20">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="1"/>
+        <v>0.755157470703125</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>3.65</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>2.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F9" s="15">
         <v>7496</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="9">
         <v>7480</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="10">
         <v>7510</v>
       </c>
+      <c r="I9" s="20">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="1"/>
+        <v>1.143798828125</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>4.5</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>2.5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="15">
         <v>9930</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="9">
         <v>9910</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="10">
         <v>9950</v>
       </c>
+      <c r="I10" s="20">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="1"/>
+        <v>1.51519775390625</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>5.76</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>4.97</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>2.5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>2.4699999999999998</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>2.4660000000000002</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="16">
         <v>16140</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="11">
         <v>16160</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="12">
         <v>16120</v>
+      </c>
+      <c r="I11" s="20">
+        <f t="shared" si="3"/>
+        <v>-160</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="1"/>
+        <v>2.4627685546875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3">
+        <v>3.62</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F14" s="18">
+        <v>7222</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7220</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7227</v>
+      </c>
+      <c r="I14" s="21">
+        <f>(H14-G14)*4</f>
+        <v>28</v>
+      </c>
+      <c r="J14" s="19">
+        <f>(F14*4*5)/2^17</f>
+        <v>1.10198974609375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <f>B15-C15</f>
+        <v>1.1150000000000002</v>
+      </c>
+      <c r="F15" s="13">
+        <v>7355</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7352</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7362</v>
+      </c>
+      <c r="I15" s="22">
+        <f t="shared" ref="I15:I21" si="4">(H15-G15)*4</f>
+        <v>40</v>
+      </c>
+      <c r="J15" s="19">
+        <f>(F15*4*5)/2^17</f>
+        <v>1.122283935546875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <f t="shared" ref="E16:E21" si="5">B16-C16</f>
+        <v>1.0750000000000002</v>
+      </c>
+      <c r="F16" s="13">
+        <v>7122</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
+        <f t="shared" ref="J16:J21" si="6">(F16*4*5)/2^17</f>
+        <v>1.08673095703125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0550000000000002</v>
+      </c>
+      <c r="F17" s="13">
+        <v>6937</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6934</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6942</v>
+      </c>
+      <c r="I17" s="22">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="J17" s="19">
+        <f t="shared" si="6"/>
+        <v>1.058502197265625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="F18" s="13">
+        <v>6855</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6853</v>
+      </c>
+      <c r="H18" s="1">
+        <v>6860</v>
+      </c>
+      <c r="I18" s="22">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="J18" s="19">
+        <f t="shared" si="6"/>
+        <v>1.045989990234375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>3.54</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0350000000000001</v>
+      </c>
+      <c r="F19" s="13">
+        <v>6812</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="19">
+        <f t="shared" si="6"/>
+        <v>1.0394287109375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F20" s="13">
+        <v>6717</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6714</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6722</v>
+      </c>
+      <c r="I20" s="22">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="J20" s="19">
+        <f t="shared" si="6"/>
+        <v>1.024932861328125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6">
+        <v>3.49</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <f t="shared" si="5"/>
+        <v>0.98500000000000032</v>
+      </c>
+      <c r="F21" s="14">
+        <v>6518</v>
+      </c>
+      <c r="G21" s="6">
+        <v>6516</v>
+      </c>
+      <c r="H21" s="6">
+        <v>6524</v>
+      </c>
+      <c r="I21" s="23">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="J21" s="19">
+        <f t="shared" si="6"/>
+        <v>0.99456787109375</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>